--- a/BlackFieldInstruction/RabiConfig/xlsx/Stage.xlsx
+++ b/BlackFieldInstruction/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9E463-2DAC-41A2-8BC8-6C73D43AA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAF74D-21CF-42B9-BDD2-763FE2FD5763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>string</t>
   </si>
@@ -67,6 +67,34 @@
   </si>
   <si>
     <t>StageTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scenePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡可用指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;int,int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:2,1:2,2:2,3:2,4:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commandDic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,9 +457,10 @@
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -444,9 +473,14 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -459,9 +493,14 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -474,9 +513,14 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -489,21 +533,26 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/BlackFieldInstruction/RabiConfig/xlsx/Stage.xlsx
+++ b/BlackFieldInstruction/RabiConfig/xlsx/Stage.xlsx
@@ -8,101 +8,111 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAF74D-21CF-42B9-BDD2-763FE2FD5763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D474062-376E-4800-BBA6-C4B052ECCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="Stage" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>cellSize</t>
+  </si>
+  <si>
+    <t>scenePath</t>
+  </si>
+  <si>
+    <t>commandDic</t>
+  </si>
+  <si>
+    <t>横向格子数</t>
+  </si>
+  <si>
+    <t>纵向格子数</t>
+  </si>
+  <si>
+    <t>每个网格的宽高</t>
+  </si>
+  <si>
+    <t>场景资源路径</t>
+  </si>
+  <si>
+    <t>关卡可用指令</t>
+  </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cellSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵向格子数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向格子数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个网格的宽高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StageTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scenePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡可用指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:5,1:5,2:5,3:5,4:5</t>
+  </si>
+  <si>
+    <t>commandTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个指令时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dictionary&lt;int,int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:2,1:2,2:2,3:2,4:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commandDic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:1,1:1,2:1,3:1,4:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,11 +443,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -444,10 +455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,72 +468,82 @@
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -534,32 +555,35 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/BlackFieldInstruction/RabiConfig/xlsx/Stage.xlsx
+++ b/BlackFieldInstruction/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D474062-376E-4800-BBA6-C4B052ECCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF8827-AF24-43FF-8F43-A1DE14221AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Stage</t>
   </si>
@@ -55,6 +55,9 @@
     <t>commandDic</t>
   </si>
   <si>
+    <t>commandTime</t>
+  </si>
+  <si>
     <t>横向格子数</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>关卡可用指令</t>
   </si>
   <si>
+    <t>每个指令时长</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -79,25 +85,27 @@
     <t>float</t>
   </si>
   <si>
+    <t>Dictionary&lt;int,int&gt;</t>
+  </si>
+  <si>
     <t>StageTest</t>
   </si>
   <si>
-    <t>0:5,1:5,2:5,3:5,4:5</t>
-  </si>
-  <si>
-    <t>commandTime</t>
+    <t>0:10,1:8,2:8,3:8,4:5</t>
+  </si>
+  <si>
+    <t>0:1,1:1,2:1,3:1,4:2</t>
+  </si>
+  <si>
+    <t>stageTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每个指令时长</t>
+    <t>关卡的时间上限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dictionary&lt;int,int&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:1,1:1,2:1,3:1,4:2</t>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +450,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,115 +480,109 @@
     <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="H4">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
